--- a/Coaches_carreers/Coaches/Patrick Vieira.xlsx
+++ b/Coaches_carreers/Coaches/Patrick Vieira.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE63"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,11 @@
           <t>ProbA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,16 +611,16 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43414</v>
+        <v>43323</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -633,40 +638,40 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
         <v>13</v>
       </c>
-      <c r="O2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>11</v>
-      </c>
       <c r="R2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -674,25 +679,30 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01672240802675591</v>
+        <v>0.01615901615901609</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4180602006688963</v>
+        <v>0.5243815243815244</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2909698996655518</v>
+        <v>0.2695552695552696</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2909698996655518</v>
+        <v>0.2060632060632061</v>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -707,64 +717,64 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>43429</v>
+        <v>43330</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
         <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="R3" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -775,25 +785,30 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Z3" t="n">
         <v>3.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01350978770333603</v>
+        <v>0.01661779081133918</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.3711055969120485</v>
+        <v>0.3470185728250245</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3090708574579543</v>
+        <v>0.3059628543499511</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3198235456299973</v>
+        <v>0.3470185728250245</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -808,27 +823,27 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43435</v>
+        <v>43337</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -844,28 +859,28 @@
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R4" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -876,25 +891,30 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01550224466891133</v>
+        <v>0.0171267729165326</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.354868125701459</v>
+        <v>0.5091890165571515</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.2969977553310887</v>
+        <v>0.276990874142291</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3481341189674523</v>
+        <v>0.2138201093005574</v>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -909,27 +929,27 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>43438</v>
+        <v>43343</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -945,57 +965,62 @@
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N5" t="n">
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01686507936507938</v>
+        <v>0.01587301587301582</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4831349206349206</v>
+        <v>0.7360066833751044</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2956349206349206</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.2212301587301587</v>
+        <v>0.08939014202172102</v>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1010,7 +1035,7 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>43450</v>
+        <v>43357</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,18 +1044,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -1046,57 +1071,62 @@
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>19</v>
+      </c>
+      <c r="S6" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>20</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01757979177334009</v>
+        <v>0.02161172161172161</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.4268646526711043</v>
+        <v>0.3783882783882784</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.3050008533879502</v>
+        <v>0.2860805860805861</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.2681344939409456</v>
+        <v>0.3355311355311356</v>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1111,11 +1141,11 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>43456</v>
+        <v>43365</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1124,7 +1154,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1135,7 +1165,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1147,7 +1177,7 @@
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N7" t="n">
         <v>9</v>
@@ -1156,19 +1186,19 @@
         <v>5</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1179,25 +1209,30 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01900719114377747</v>
+        <v>0.01818181818181815</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.4029337371262647</v>
+        <v>0.4363636363636364</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2934928088562225</v>
+        <v>0.3151515151515152</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.3035734540175128</v>
+        <v>0.2484848484848485</v>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1212,64 +1247,64 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>43477</v>
+        <v>43368</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="R8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1280,25 +1315,30 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Z8" t="n">
         <v>3.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01494107744107742</v>
+        <v>0.01724910394265233</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.4396043771043771</v>
+        <v>0.3994175627240144</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2975589225589226</v>
+        <v>0.2952508960573477</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.2628367003367004</v>
+        <v>0.305331541218638</v>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1313,27 +1353,27 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>43481</v>
+        <v>43372</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Paris SG</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1349,57 +1389,62 @@
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
       </c>
       <c r="R9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.3</v>
+        <v>1.36</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01677097057531844</v>
+        <v>0.01681521093285794</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.4180116381203338</v>
+        <v>0.1165181224004754</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2957290294246815</v>
+        <v>0.1650029708853239</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.2862593324549846</v>
+        <v>0.7184789067142008</v>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1414,11 +1459,11 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>43484</v>
+        <v>43378</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1438,40 +1483,40 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1482,25 +1527,30 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="Z10" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01601601601601595</v>
+        <v>0.0158506254872118</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.4284284284284285</v>
+        <v>0.4060903027828304</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.3173173173173174</v>
+        <v>0.2871796775430913</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.2542542542542543</v>
+        <v>0.3067300196740785</v>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1515,7 +1565,7 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>43491</v>
+        <v>43394</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1524,55 +1574,55 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1583,25 +1633,30 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.75</v>
+        <v>2.04</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01845238095238096</v>
+        <v>0.02054154995331466</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4577380952380952</v>
+        <v>0.2651727357609711</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2940476190476191</v>
+        <v>0.2651727357609711</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.2482142857142857</v>
+        <v>0.4696545284780579</v>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1616,11 +1671,11 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>43497</v>
+        <v>43401</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1629,33 +1684,33 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>7</v>
@@ -1664,45 +1719,50 @@
         <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R12" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S12" t="n">
         <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01461988304093564</v>
+        <v>0.01516840647275434</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.5409356725146199</v>
+        <v>0.4196142022228979</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2878618965575487</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.195906432748538</v>
+        <v>0.2925239012195534</v>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1717,7 +1777,7 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>43506</v>
+        <v>43407</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1786,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1741,40 +1801,40 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N13" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
         <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1785,25 +1845,30 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>4.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z13" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01625386996904021</v>
+        <v>0.01654977236372586</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.1942724458204335</v>
+        <v>0.5648455764734834</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.2337461300309598</v>
+        <v>0.2612280054140519</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.5719814241486069</v>
+        <v>0.1739264181124646</v>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1818,11 +1883,11 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>43512</v>
+        <v>43414</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1831,54 +1896,54 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N14" t="n">
         <v>13</v>
       </c>
       <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>11</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16</v>
+      </c>
+      <c r="S14" t="n">
         <v>4</v>
       </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>12</v>
-      </c>
-      <c r="R14" t="n">
-        <v>8</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1886,25 +1951,30 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01767676767676766</v>
+        <v>0.01672240802675591</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.398989898989899</v>
+        <v>0.4180602006688963</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.3156565656565656</v>
+        <v>0.2909698996655518</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.2853535353535354</v>
+        <v>0.2909698996655518</v>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1919,20 +1989,20 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>43519</v>
+        <v>43429</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1958,25 +2028,25 @@
         <v>11</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1987,25 +2057,30 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AA15" t="n">
         <v>3</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01617709663686677</v>
+        <v>0.01350978770333603</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3541932737335036</v>
+        <v>0.3711055969120485</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.3286504895700298</v>
+        <v>0.3090708574579543</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.3171562366964665</v>
+        <v>0.3198235456299973</v>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2020,43 +2095,43 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>43527</v>
+        <v>43435</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N16" t="n">
         <v>10</v>
@@ -2068,45 +2143,50 @@
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01912932422677553</v>
+        <v>0.01550224466891133</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.4156532844688767</v>
+        <v>0.354868125701459</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.325698261980121</v>
+        <v>0.2969977553310887</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.2586484535510022</v>
+        <v>0.3481341189674523</v>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2121,27 +2201,27 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>43534</v>
+        <v>43438</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -2157,25 +2237,25 @@
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
+        <v>10</v>
+      </c>
+      <c r="R17" t="n">
         <v>17</v>
       </c>
-      <c r="R17" t="n">
-        <v>16</v>
-      </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
         <v>1</v>
@@ -2184,30 +2264,35 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Z17" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01851851851851853</v>
+        <v>0.01686507936507938</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.4831349206349206</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.2956349206349206</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.2212301587301587</v>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2222,7 +2307,7 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>43539</v>
+        <v>43450</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2231,7 +2316,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2246,69 +2331,74 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N18" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
         <v>20</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Z18" t="n">
         <v>3.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.02012850773669032</v>
+        <v>0.01757979177334009</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.4676763703120902</v>
+        <v>0.4268646526711043</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.3024521374246</v>
+        <v>0.3050008533879502</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.2298714922633097</v>
+        <v>0.2681344939409456</v>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2323,11 +2413,11 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>43555</v>
+        <v>43456</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2336,54 +2426,54 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>15</v>
+      </c>
+      <c r="R19" t="n">
         <v>12</v>
       </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>17</v>
-      </c>
-      <c r="R19" t="n">
-        <v>11</v>
-      </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2391,25 +2481,30 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="Z19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA19" t="n">
         <v>3.1</v>
       </c>
-      <c r="AA19" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AB19" t="n">
-        <v>0.01724910394265233</v>
+        <v>0.01900719114377747</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.3994175627240144</v>
+        <v>0.4029337371262647</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.305331541218638</v>
+        <v>0.2934928088562225</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.2952508960573477</v>
+        <v>0.3035734540175128</v>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2424,7 +2519,7 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>43562</v>
+        <v>43477</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2433,7 +2528,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2460,28 +2555,28 @@
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2492,25 +2587,30 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01611535199321453</v>
+        <v>0.01494107744107742</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.3655640373197626</v>
+        <v>0.4396043771043771</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.3172179813401188</v>
+        <v>0.2975589225589226</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.3172179813401188</v>
+        <v>0.2628367003367004</v>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2525,11 +2625,11 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>43569</v>
+        <v>43481</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2538,10 +2638,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2552,22 +2652,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -2576,42 +2676,47 @@
         <v>13</v>
       </c>
       <c r="R21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S21" t="n">
         <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01851851851851853</v>
+        <v>0.01677097057531844</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.5370370370370371</v>
+        <v>0.4180116381203338</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.2957290294246815</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.2862593324549846</v>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2626,61 +2731,61 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>43575</v>
+        <v>43484</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="R22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>3</v>
@@ -2694,25 +2799,30 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AA22" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.01649279682066562</v>
+        <v>0.01601601601601595</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.5299552906110283</v>
+        <v>0.4284284284284285</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.2865375062096374</v>
+        <v>0.3173173173173174</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.1835072031793344</v>
+        <v>0.2542542542542543</v>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2727,7 +2837,7 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>43583</v>
+        <v>43491</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2736,11 +2846,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2769,19 +2879,19 @@
         <v>14</v>
       </c>
       <c r="O23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R23" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>3</v>
@@ -2795,25 +2905,30 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z23" t="n">
         <v>3.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.01845238095238096</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.4577380952380952</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2940476190476191</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.2291666666666667</v>
+        <v>0.2482142857142857</v>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2828,11 +2943,11 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>43589</v>
+        <v>43497</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Paris SG</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2841,80 +2956,85 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R24" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S24" t="n">
         <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0191919191919192</v>
+        <v>0.01461988304093564</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.7808080808080808</v>
+        <v>0.5409356725146199</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.1474747474747475</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.07171717171717171</v>
+        <v>0.195906432748538</v>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2929,7 +3049,7 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>43596</v>
+        <v>43506</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2938,46 +3058,46 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>A</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="R25" t="n">
         <v>13</v>
@@ -2986,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2997,25 +3117,30 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="AA25" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01505376344086022</v>
+        <v>0.01625386996904021</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.3849462365591398</v>
+        <v>0.1942724458204335</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.3075268817204301</v>
+        <v>0.2337461300309598</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.3075268817204301</v>
+        <v>0.5719814241486069</v>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3030,11 +3155,11 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>43603</v>
+        <v>43512</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3066,28 +3191,28 @@
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="R26" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -3098,25 +3223,30 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>1.57</v>
+        <v>2.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01786978060863409</v>
+        <v>0.01767676767676766</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.6190728945506015</v>
+        <v>0.398989898989899</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.2321302193913659</v>
+        <v>0.3156565656565656</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.1487968860580326</v>
+        <v>0.2853535353535354</v>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3131,20 +3261,20 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>43609</v>
+        <v>43519</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3167,28 +3297,28 @@
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
       </c>
       <c r="R27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3199,31 +3329,36 @@
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01757979177334016</v>
+        <v>0.01617709663686677</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.3050008533879501</v>
+        <v>0.3541932737335036</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.2681344939409455</v>
+        <v>0.3286504895700298</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.4268646526711042</v>
+        <v>0.3171562366964665</v>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3232,7 +3367,7 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>43687</v>
+        <v>43527</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3241,14 +3376,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -3268,31 +3403,31 @@
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>1</v>
@@ -3300,31 +3435,36 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01701222753854329</v>
+        <v>0.01912932422677553</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.4375332270069112</v>
+        <v>0.4156532844688767</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.31632110579479</v>
+        <v>0.325698261980121</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.2461456671982988</v>
+        <v>0.2586484535510022</v>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3333,11 +3473,11 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>43694</v>
+        <v>43534</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3349,83 +3489,88 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N29" t="n">
         <v>6</v>
       </c>
       <c r="O29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="R29" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.01899951899951905</v>
+        <v>0.01851851851851853</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.4571909571909571</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.284030784030784</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.2587782587782587</v>
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3434,7 +3579,7 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>43705</v>
+        <v>43539</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3443,55 +3588,55 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N30" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
         <v>3</v>
       </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
       <c r="Q30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R30" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3502,31 +3647,36 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Z30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.02012850773669032</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.3125</v>
+        <v>0.4676763703120902</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3024521374246</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.3958333333333334</v>
+        <v>0.2298714922633097</v>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3535,11 +3685,11 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>43709</v>
+        <v>43555</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3548,10 +3698,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -3559,43 +3709,43 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
+        <v>14</v>
+      </c>
+      <c r="N31" t="n">
+        <v>12</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>17</v>
+      </c>
+      <c r="R31" t="n">
         <v>11</v>
       </c>
-      <c r="N31" t="n">
-        <v>11</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="S31" t="n">
         <v>3</v>
       </c>
-      <c r="P31" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>13</v>
-      </c>
-      <c r="R31" t="n">
-        <v>13</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2</v>
-      </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3603,31 +3753,36 @@
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="n">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.01630927212322564</v>
+        <v>0.01724910394265233</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.5650860767139837</v>
+        <v>0.3994175627240144</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.2694050135910601</v>
+        <v>0.305331541218638</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.1655089096949562</v>
+        <v>0.2952508960573477</v>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3636,23 +3791,23 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>43722</v>
+        <v>43562</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Montpellier</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Nice</t>
-        </is>
-      </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3663,37 +3818,37 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O32" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="R32" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3704,31 +3859,36 @@
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="n">
-        <v>2</v>
+        <v>2.62</v>
       </c>
       <c r="Z32" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AA32" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.01746031746031747</v>
+        <v>0.01611535199321453</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.4825396825396825</v>
+        <v>0.3655640373197626</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.2682539682539682</v>
+        <v>0.3172179813401188</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.2492063492063492</v>
+        <v>0.3172179813401188</v>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3737,34 +3897,34 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>43729</v>
+        <v>43569</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3773,28 +3933,28 @@
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N33" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>7</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
         <v>13</v>
       </c>
-      <c r="O33" t="n">
-        <v>6</v>
-      </c>
-      <c r="P33" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>7</v>
-      </c>
       <c r="R33" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S33" t="n">
         <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3805,31 +3965,36 @@
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z33" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01875532821824377</v>
+        <v>0.01851851851851853</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.5694799658994033</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.2753623188405798</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.1551577152600171</v>
+        <v>0.2037037037037037</v>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3838,58 +4003,58 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>43732</v>
+        <v>43575</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S34" t="n">
         <v>2</v>
@@ -3906,31 +4071,36 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Z34" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.01629072681704262</v>
+        <v>0.01649279682066562</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.4837092731829574</v>
+        <v>0.5299552906110283</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.2694235588972431</v>
+        <v>0.2865375062096374</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.2468671679197995</v>
+        <v>0.1835072031793344</v>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3939,7 +4109,7 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>43736</v>
+        <v>43583</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3948,55 +4118,55 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O35" t="n">
         <v>5</v>
       </c>
       <c r="P35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R35" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -4007,31 +4177,36 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="Z35" t="n">
         <v>3.2</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.01649481631733159</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.328332769889565</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.2960051836826684</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.3756620464277665</v>
+        <v>0.2291666666666667</v>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4040,11 +4215,11 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>43743</v>
+        <v>43589</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Paris SG</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4056,11 +4231,11 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -4076,10 +4251,10 @@
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O36" t="n">
         <v>5</v>
@@ -4088,16 +4263,16 @@
         <v>2</v>
       </c>
       <c r="Q36" t="n">
+        <v>15</v>
+      </c>
+      <c r="R36" t="n">
         <v>14</v>
       </c>
-      <c r="R36" t="n">
-        <v>7</v>
-      </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -4108,31 +4283,36 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="n">
-        <v>2.05</v>
+        <v>1.25</v>
       </c>
       <c r="Z36" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="AA36" t="n">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01799769193864191</v>
+        <v>0.0191919191919192</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.4698071861101386</v>
+        <v>0.7808080808080808</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.2850326110916611</v>
+        <v>0.1474747474747475</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.2451602027982002</v>
+        <v>0.07171717171717171</v>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4141,7 +4321,7 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>43756</v>
+        <v>43596</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4150,25 +4330,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Paris SG</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -4177,31 +4357,31 @@
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N37" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="O37" t="n">
         <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="n">
         <v>3</v>
       </c>
-      <c r="T37" t="n">
-        <v>2</v>
-      </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -4209,31 +4389,36 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="AA37" t="n">
-        <v>1.44</v>
+        <v>3.1</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01666666666666661</v>
+        <v>0.01505376344086022</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.3849462365591398</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.2055555555555556</v>
+        <v>0.3075268817204301</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.6777777777777778</v>
+        <v>0.3075268817204301</v>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4242,11 +4427,11 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>43764</v>
+        <v>43603</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4255,7 +4440,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -4278,25 +4463,25 @@
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="R38" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>3</v>
@@ -4305,36 +4490,41 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="Z38" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AA38" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.01686507936507938</v>
+        <v>0.01786978060863409</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.4831349206349206</v>
+        <v>0.6190728945506015</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.2956349206349206</v>
+        <v>0.2321302193913659</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.2212301587301587</v>
+        <v>0.1487968860580326</v>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4343,7 +4533,7 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>43772</v>
+        <v>43609</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4352,7 +4542,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4367,7 +4557,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -4379,25 +4569,25 @@
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N39" t="n">
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R39" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
         <v>3</v>
@@ -4406,30 +4596,35 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Z39" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.01669795755817264</v>
+        <v>0.01757979177334016</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.3536724128121977</v>
+        <v>0.3050008533879501</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.3058826876031177</v>
+        <v>0.2681344939409455</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.3404448995846845</v>
+        <v>0.4268646526711042</v>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -4444,7 +4639,7 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>43777</v>
+        <v>43687</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4453,18 +4648,18 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -4480,57 +4675,62 @@
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
+        <v>17</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8</v>
+      </c>
+      <c r="O40" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
         <v>10</v>
       </c>
-      <c r="N40" t="n">
-        <v>10</v>
-      </c>
-      <c r="O40" t="n">
-        <v>5</v>
-      </c>
-      <c r="P40" t="n">
+      <c r="R40" t="n">
+        <v>8</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="n">
         <v>4</v>
       </c>
-      <c r="Q40" t="n">
-        <v>13</v>
-      </c>
-      <c r="R40" t="n">
-        <v>16</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2</v>
-      </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Z40" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AA40" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.01409253828608666</v>
+        <v>0.01701222753854329</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.40257412838058</v>
+        <v>0.4375332270069112</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.3084881068752037</v>
+        <v>0.31632110579479</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.2889377647442164</v>
+        <v>0.2461456671982988</v>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -4545,11 +4745,11 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>43792</v>
+        <v>43694</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4558,54 +4758,54 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N41" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="O41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P41" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="R41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -4613,25 +4813,30 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="Z41" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AA41" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.01984126984126984</v>
+        <v>0.01899951899951905</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.6746031746031745</v>
+        <v>0.4571909571909571</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.2023809523809524</v>
+        <v>0.284030784030784</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.123015873015873</v>
+        <v>0.2587782587782587</v>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -4646,7 +4851,7 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>43799</v>
+        <v>43705</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4655,52 +4860,52 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N42" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
         <v>7</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>10</v>
       </c>
       <c r="R42" t="n">
         <v>13</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
         <v>1</v>
@@ -4714,25 +4919,30 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Z42" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AA42" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.01602361374657391</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.3761332489985242</v>
+        <v>0.3125</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.3173097195867594</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.3065570314147164</v>
+        <v>0.3958333333333334</v>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -4747,11 +4957,11 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>43803</v>
+        <v>43709</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4760,21 +4970,21 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4783,22 +4993,22 @@
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N43" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" t="n">
         <v>7</v>
       </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
       <c r="Q43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S43" t="n">
         <v>2</v>
@@ -4815,25 +5025,30 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="n">
-        <v>2.3</v>
+        <v>1.72</v>
       </c>
       <c r="Z43" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.01677097057531844</v>
+        <v>0.01630927212322564</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.4180116381203338</v>
+        <v>0.5650860767139837</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.2862593324549846</v>
+        <v>0.2694050135910601</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.2957290294246815</v>
+        <v>0.1655089096949562</v>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -4848,20 +5063,20 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>43806</v>
+        <v>43722</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4872,37 +5087,37 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N44" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
+        <v>8</v>
+      </c>
+      <c r="P44" t="n">
         <v>5</v>
       </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
       <c r="Q44" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
         <v>2</v>
@@ -4916,25 +5131,30 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Z44" t="n">
         <v>3.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.01904761904761905</v>
+        <v>0.01746031746031747</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.5523809523809523</v>
+        <v>0.4825396825396825</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2682539682539682</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.1809523809523809</v>
+        <v>0.2492063492063492</v>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -4949,34 +5169,34 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>43813</v>
+        <v>43729</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4988,25 +5208,25 @@
         <v>16</v>
       </c>
       <c r="N45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P45" t="n">
         <v>7</v>
       </c>
       <c r="Q45" t="n">
+        <v>7</v>
+      </c>
+      <c r="R45" t="n">
         <v>13</v>
       </c>
-      <c r="R45" t="n">
-        <v>11</v>
-      </c>
       <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="n">
         <v>3</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -5017,25 +5237,30 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="Z45" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AA45" t="n">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.01550224466891133</v>
+        <v>0.01875532821824377</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.354868125701459</v>
+        <v>0.5694799658994033</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.2969977553310887</v>
+        <v>0.2753623188405798</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.3481341189674523</v>
+        <v>0.1551577152600171</v>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -5050,23 +5275,23 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>43820</v>
+        <v>43732</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F46" t="n">
         <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -5074,7 +5299,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5086,28 +5311,28 @@
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
         <v>5</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R46" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5118,25 +5343,30 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="Z46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.01654977236372586</v>
+        <v>0.01629072681704262</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.5648455764734834</v>
+        <v>0.4837092731829574</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.2612280054140519</v>
+        <v>0.2694235588972431</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.1739264181124646</v>
+        <v>0.2468671679197995</v>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -5151,16 +5381,16 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>43841</v>
+        <v>43736</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -5187,28 +5417,28 @@
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N47" t="n">
+        <v>11</v>
+      </c>
+      <c r="O47" t="n">
+        <v>5</v>
+      </c>
+      <c r="P47" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q47" t="n">
         <v>8</v>
       </c>
-      <c r="O47" t="n">
-        <v>9</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>11</v>
-      </c>
       <c r="R47" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -5219,25 +5449,30 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="Z47" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AA47" t="n">
-        <v>4.33</v>
+        <v>2.55</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.01432565246835334</v>
+        <v>0.01649481631733159</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.5119901370053308</v>
+        <v>0.328332769889565</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.2713886332459324</v>
+        <v>0.2960051836826684</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.2166212297487367</v>
+        <v>0.3756620464277665</v>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -5252,27 +5487,27 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>43854</v>
+        <v>43743</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -5288,28 +5523,28 @@
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N48" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="O48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R48" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -5320,25 +5555,30 @@
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Z48" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AA48" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.02144629563984402</v>
+        <v>0.01799769193864191</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.3631690889755406</v>
+        <v>0.4698071861101386</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.3011343495214463</v>
+        <v>0.2850326110916611</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.3356965615030131</v>
+        <v>0.2451602027982002</v>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -5353,7 +5593,7 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>43863</v>
+        <v>43756</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5362,49 +5602,49 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Paris SG</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
+        <v>10</v>
+      </c>
+      <c r="N49" t="n">
+        <v>24</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q49" t="n">
         <v>12</v>
       </c>
-      <c r="N49" t="n">
-        <v>14</v>
-      </c>
-      <c r="O49" t="n">
-        <v>7</v>
-      </c>
-      <c r="P49" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>17</v>
-      </c>
       <c r="R49" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S49" t="n">
         <v>3</v>
@@ -5413,33 +5653,38 @@
         <v>2</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.01587301587301582</v>
+        <v>0.01666666666666661</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.2698412698412699</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.2698412698412699</v>
+        <v>0.2055555555555556</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.4603174603174603</v>
+        <v>0.6777777777777778</v>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -5454,11 +5699,11 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>43866</v>
+        <v>43764</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5470,77 +5715,82 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N50" t="n">
+        <v>9</v>
+      </c>
+      <c r="O50" t="n">
+        <v>6</v>
+      </c>
+      <c r="P50" t="n">
         <v>5</v>
       </c>
-      <c r="O50" t="n">
-        <v>4</v>
-      </c>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
       <c r="Q50" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R50" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z50" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AA50" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.01830129249484092</v>
+        <v>0.01686507936507938</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.4362441620506136</v>
+        <v>0.4831349206349206</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.3042793526664494</v>
+        <v>0.2956349206349206</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.2594764852829369</v>
+        <v>0.2212301587301587</v>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -5555,7 +5805,7 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>43869</v>
+        <v>43772</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5564,84 +5814,89 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
+        <v>12</v>
+      </c>
+      <c r="N51" t="n">
+        <v>11</v>
+      </c>
+      <c r="O51" t="n">
         <v>6</v>
       </c>
-      <c r="N51" t="n">
-        <v>10</v>
-      </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>3</v>
       </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
       <c r="Q51" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R51" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="n">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="Z51" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AA51" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.01617826617826619</v>
+        <v>0.01669795755817264</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.4966422466422467</v>
+        <v>0.3536724128121977</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.2695360195360195</v>
+        <v>0.3058826876031177</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.2338217338217338</v>
+        <v>0.3404448995846845</v>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -5656,46 +5911,46 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>43876</v>
+        <v>43777</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N52" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
         <v>5</v>
@@ -5704,19 +5959,19 @@
         <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R52" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5724,25 +5979,30 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z52" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AA52" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.01708683473389357</v>
+        <v>0.01409253828608666</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.3829131652661065</v>
+        <v>0.40257412838058</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.27703081232493</v>
+        <v>0.3084881068752037</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.3400560224089636</v>
+        <v>0.2889377647442164</v>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -5757,34 +6017,34 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>43882</v>
+        <v>43792</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F53" t="n">
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5793,57 +6053,62 @@
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N53" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q53" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R53" t="n">
+        <v>13</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="n">
         <v>4</v>
       </c>
-      <c r="S53" t="n">
-        <v>3</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0</v>
-      </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="Z53" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.0198830409356725</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.5064327485380117</v>
+        <v>0.6746031746031745</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.2467836257309942</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.2467836257309942</v>
+        <v>0.123015873015873</v>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -5858,64 +6123,64 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>43891</v>
+        <v>43799</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>H</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O54" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="R54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -5926,25 +6191,30 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="n">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="Z54" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AA54" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.01670843776106934</v>
+        <v>0.01602361374657391</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.5096073517126148</v>
+        <v>0.3761332489985242</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.2690058479532164</v>
+        <v>0.3173097195867594</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.2213868003341687</v>
+        <v>0.3065570314147164</v>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -5959,20 +6229,20 @@
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>43897</v>
+        <v>43803</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -5983,145 +6253,146 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N55" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O55" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
       </c>
       <c r="Q55" t="n">
+        <v>15</v>
+      </c>
+      <c r="R55" t="n">
         <v>11</v>
       </c>
-      <c r="R55" t="n">
-        <v>15</v>
-      </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="Z55" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AA55" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.01602863367569244</v>
+        <v>0.01677097057531844</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.2780890133831311</v>
+        <v>0.4180116381203338</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.2617491441020853</v>
+        <v>0.2862593324549846</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.4601618425147837</v>
+        <v>0.2957290294246815</v>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>44296</v>
+        <v>43806</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>14</v>
+      </c>
+      <c r="N56" t="n">
+        <v>18</v>
+      </c>
+      <c r="O56" t="n">
+        <v>5</v>
+      </c>
+      <c r="P56" t="n">
         <v>3</v>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>M Oliver</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="n">
-        <v>23</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1</v>
-      </c>
-      <c r="P56" t="n">
-        <v>10</v>
-      </c>
       <c r="Q56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -6132,101 +6403,102 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="n">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Z56" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.53</v>
+        <v>5</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.019869936278605</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.1229872065785378</v>
+        <v>0.5523809523809523</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.2432879584582371</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.6337248349632251</v>
+        <v>0.1809523809523809</v>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>44312</v>
+        <v>43813</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>G Scott</t>
-        </is>
-      </c>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N57" t="n">
+        <v>15</v>
+      </c>
+      <c r="O57" t="n">
         <v>4</v>
       </c>
-      <c r="O57" t="n">
-        <v>5</v>
-      </c>
       <c r="P57" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q57" t="n">
         <v>13</v>
       </c>
       <c r="R57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -6237,101 +6509,102 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="Z57" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="AA57" t="n">
-        <v>8.5</v>
+        <v>2.75</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.02095988510877793</v>
+        <v>0.01550224466891133</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.6933258291769364</v>
+        <v>0.354868125701459</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.2099869971083121</v>
+        <v>0.2969977553310887</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.09668717371475148</v>
+        <v>0.3481341189674523</v>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>44317</v>
+        <v>43820</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>D Coote</t>
-        </is>
-      </c>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N58" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="O58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>9</v>
       </c>
       <c r="R58" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -6342,101 +6615,102 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="n">
-        <v>10</v>
+        <v>1.72</v>
       </c>
       <c r="Z58" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AA58" t="n">
-        <v>1.33</v>
+        <v>5.25</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.01729323308270677</v>
+        <v>0.01654977236372586</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.08270676691729324</v>
+        <v>0.5648455764734834</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.1827067669172932</v>
+        <v>0.2612280054140519</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.7345864661654135</v>
+        <v>0.1739264181124646</v>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>44324</v>
+        <v>43841</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>S Hooper</t>
-        </is>
-      </c>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N59" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P59" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q59" t="n">
         <v>11</v>
       </c>
       <c r="R59" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
@@ -6447,101 +6721,102 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="Z59" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>2.45</v>
+        <v>4.33</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.0179988662131519</v>
+        <v>0.01432565246835334</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.3153344671201814</v>
+        <v>0.5119901370053308</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.2945011337868481</v>
+        <v>0.2713886332459324</v>
       </c>
       <c r="AE59" t="n">
-        <v>0.3901643990929705</v>
+        <v>0.2166212297487367</v>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>44327</v>
+        <v>43854</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>A Madley</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
+        <v>23</v>
+      </c>
+      <c r="N60" t="n">
+        <v>21</v>
+      </c>
+      <c r="O60" t="n">
+        <v>4</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
         <v>13</v>
       </c>
-      <c r="N60" t="n">
-        <v>11</v>
-      </c>
-      <c r="O60" t="n">
-        <v>6</v>
-      </c>
-      <c r="P60" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>20</v>
-      </c>
       <c r="R60" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
@@ -6552,56 +6827,61 @@
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Z60" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AA60" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.01709898051361473</v>
+        <v>0.02144629563984402</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.4707058975351658</v>
+        <v>0.3631690889755406</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.260678797264163</v>
+        <v>0.3011343495214463</v>
       </c>
       <c r="AE60" t="n">
-        <v>0.268615305200671</v>
+        <v>0.3356965615030131</v>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>44332</v>
+        <v>43863</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -6612,35 +6892,31 @@
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>D Coote</t>
-        </is>
-      </c>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N61" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q61" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="R61" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S61" t="n">
         <v>3</v>
@@ -6649,100 +6925,101 @@
         <v>2</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.01851851851851853</v>
+        <v>0.01587301587301582</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.2698412698412699</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.2698412698412699</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.4259259259259259</v>
+        <v>0.4603174603174603</v>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>44335</v>
+        <v>43866</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F62" t="n">
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>A Taylor</t>
-        </is>
-      </c>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O62" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q62" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R62" t="n">
         <v>7</v>
@@ -6751,7 +7028,7 @@
         <v>2</v>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -6762,104 +7039,105 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Z62" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.01851851851851845</v>
+        <v>0.01830129249484092</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.1481481481481482</v>
+        <v>0.4362441620506136</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.3042793526664494</v>
       </c>
       <c r="AE62" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.2594764852829369</v>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>44339</v>
+        <v>43869</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C Pawson</t>
-        </is>
-      </c>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N63" t="n">
+        <v>10</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3</v>
+      </c>
+      <c r="P63" t="n">
         <v>5</v>
       </c>
-      <c r="O63" t="n">
-        <v>5</v>
-      </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
+        <v>8</v>
+      </c>
+      <c r="R63" t="n">
+        <v>13</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="n">
         <v>4</v>
       </c>
-      <c r="Q63" t="n">
-        <v>10</v>
-      </c>
-      <c r="R63" t="n">
-        <v>8</v>
-      </c>
-      <c r="S63" t="n">
-        <v>2</v>
-      </c>
-      <c r="T63" t="n">
-        <v>2</v>
-      </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -6867,25 +7145,1620 @@
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="n">
-        <v>1.14</v>
+        <v>1.95</v>
       </c>
       <c r="Z63" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="AA63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0.01617826617826619</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.4966422466422467</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.2695360195360195</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0.2338217338217338</v>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>43876</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>19</v>
+      </c>
+      <c r="N64" t="n">
+        <v>14</v>
+      </c>
+      <c r="O64" t="n">
+        <v>5</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>14</v>
+      </c>
+      <c r="R64" t="n">
+        <v>9</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0.01708683473389357</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0.3829131652661065</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0.27703081232493</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0.3400560224089636</v>
+      </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>43882</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>19</v>
+      </c>
+      <c r="N65" t="n">
+        <v>9</v>
+      </c>
+      <c r="O65" t="n">
+        <v>6</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>7</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0.0198830409356725</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.5064327485380117</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.2467836257309942</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0.2467836257309942</v>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>12</v>
+      </c>
+      <c r="N66" t="n">
+        <v>9</v>
+      </c>
+      <c r="O66" t="n">
+        <v>4</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>19</v>
+      </c>
+      <c r="R66" t="n">
+        <v>12</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0.01670843776106934</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0.5096073517126148</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.2690058479532164</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0.2213868003341687</v>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>43897</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>12</v>
+      </c>
+      <c r="N67" t="n">
+        <v>14</v>
+      </c>
+      <c r="O67" t="n">
+        <v>5</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>11</v>
+      </c>
+      <c r="R67" t="n">
         <v>15</v>
       </c>
-      <c r="AB63" t="n">
-        <v>0.02050223598211217</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0.8566907464740282</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0.09714482284141725</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>0.0461644306845545</v>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="n">
+        <v>4</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1</v>
+      </c>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0.01602863367569244</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0.2780890133831311</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.2617491441020853</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0.4601618425147837</v>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>44066</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="n">
+        <v>17</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>17</v>
+      </c>
+      <c r="R68" t="n">
+        <v>18</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0.01767676767676766</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.4823232323232323</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.2853535353535354</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0.2323232323232323</v>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>44072</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>6</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>14</v>
+      </c>
+      <c r="R69" t="n">
+        <v>11</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="n">
+        <v>6</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0.02020202020202018</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0.4343434343434344</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0.2828282828282829</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0.2828282828282829</v>
+      </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>44086</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>20</v>
+      </c>
+      <c r="N70" t="n">
+        <v>9</v>
+      </c>
+      <c r="O70" t="n">
+        <v>13</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>17</v>
+      </c>
+      <c r="R70" t="n">
+        <v>16</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0.01723113487819372</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0.4373143196672608</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0.2857991681521093</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0.2768865121806298</v>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>44094</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>14</v>
+      </c>
+      <c r="N71" t="n">
+        <v>14</v>
+      </c>
+      <c r="O71" t="n">
+        <v>5</v>
+      </c>
+      <c r="P71" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>9</v>
+      </c>
+      <c r="R71" t="n">
+        <v>9</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0.01587301587301589</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0.1174603174603174</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0.1841269841269841</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>44101</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>18</v>
+      </c>
+      <c r="N72" t="n">
+        <v>13</v>
+      </c>
+      <c r="O72" t="n">
+        <v>5</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>9</v>
+      </c>
+      <c r="R72" t="n">
+        <v>15</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0.02055352055352055</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0.4556369556369556</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0.2871387871387872</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0.2572242572242572</v>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>44107</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>18</v>
+      </c>
+      <c r="N73" t="n">
+        <v>11</v>
+      </c>
+      <c r="O73" t="n">
+        <v>7</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>13</v>
+      </c>
+      <c r="R73" t="n">
+        <v>8</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1</v>
+      </c>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0.01639630211058781</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0.3917669631955346</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0.2912960055817199</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0.3169370312227455</v>
+      </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>44122</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>St Etienne</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>11</v>
+      </c>
+      <c r="N74" t="n">
+        <v>11</v>
+      </c>
+      <c r="O74" t="n">
+        <v>4</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>15</v>
+      </c>
+      <c r="R74" t="n">
+        <v>10</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="n">
+        <v>5</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0.01994301994301995</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0.4245014245014245</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0.2877492877492878</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0.2877492877492878</v>
+      </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>8</v>
+      </c>
+      <c r="N75" t="n">
+        <v>12</v>
+      </c>
+      <c r="O75" t="n">
+        <v>3</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>13</v>
+      </c>
+      <c r="R75" t="n">
+        <v>18</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>6</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0.02094679514034355</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0.2647674905739422</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0.3016338500209468</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0.433598659405111</v>
+      </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>11</v>
+      </c>
+      <c r="N76" t="n">
+        <v>12</v>
+      </c>
+      <c r="O76" t="n">
+        <v>5</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>18</v>
+      </c>
+      <c r="R76" t="n">
+        <v>12</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>0.017020697167756</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0.4274237472766884</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0.295479302832244</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0.2770969498910675</v>
+      </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>44143</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>8</v>
+      </c>
+      <c r="N77" t="n">
+        <v>15</v>
+      </c>
+      <c r="O77" t="n">
+        <v>4</v>
+      </c>
+      <c r="P77" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>8</v>
+      </c>
+      <c r="R77" t="n">
+        <v>16</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0.01846468561584843</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0.2940353143841516</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0.2593130921619294</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0.446651593453919</v>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>44164</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>24</v>
+      </c>
+      <c r="N78" t="n">
+        <v>9</v>
+      </c>
+      <c r="O78" t="n">
+        <v>7</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>7</v>
+      </c>
+      <c r="R78" t="n">
+        <v>21</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0.0238095238095238</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0.5476190476190476</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0.253968253968254</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0.1984126984126984</v>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
       </c>
     </row>
   </sheetData>
